--- a/public/school_sample_data.xlsx
+++ b/public/school_sample_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavsharma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavsharma/Desktop/Events/SIH/SIH-Upasthiti/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7444C-9AC0-EC4E-8448-9725A22BB10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801EDD7-B4FE-994F-979D-4E2E19C6186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Curriculum" sheetId="6" r:id="rId6"/>
     <sheet name="Events" sheetId="7" r:id="rId7"/>
     <sheet name="Notices" sheetId="8" r:id="rId8"/>
+    <sheet name="Holidays" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="732">
   <si>
     <t>Class ID</t>
   </si>
@@ -2214,6 +2215,15 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Teacher's Day</t>
+  </si>
+  <si>
+    <t>SIH</t>
+  </si>
+  <si>
+    <t>Twin Towers</t>
   </si>
 </sst>
 </file>
@@ -2270,12 +2280,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2582,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+    <sheetView zoomScale="173" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5273,7 +5286,7 @@
   <dimension ref="A1:D351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10747,7 +10760,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10810,7 +10823,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10876,4 +10889,51 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65026444-F0CD-5047-B980-7E3E6FA9E306}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45905</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45918</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45911</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/school_sample_data.xlsx
+++ b/public/school_sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavsharma/Desktop/Events/SIH/SIH-Upasthiti/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801EDD7-B4FE-994F-979D-4E2E19C6186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA281F3-2925-F74C-9311-63697ED4F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="732">
   <si>
     <t>Class ID</t>
   </si>
@@ -10757,10 +10757,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10771,7 +10771,7 @@
     <col min="4" max="4" width="22.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>708</v>
       </c>
@@ -10784,8 +10784,11 @@
       <c r="D1" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>711</v>
       </c>
@@ -10798,8 +10801,11 @@
       <c r="D2" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>714</v>
       </c>
@@ -10812,6 +10818,45 @@
       <c r="D3" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10823,7 +10868,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10895,7 +10940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65026444-F0CD-5047-B980-7E3E6FA9E306}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
